--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_40.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3498544.52938698</v>
+        <v>3493915.400467071</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.38184714</v>
+        <v>2310564.14322317</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791245</v>
+        <v>419463.0933791241</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6737370.190945591</v>
+        <v>6735010.273383915</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>276.116593302343</v>
       </c>
       <c r="F2" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>77.55514878872825</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>21.24059023833788</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>227.816073408046</v>
+        <v>165.2445910086945</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>131.6846499321094</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -832,13 +832,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>26.64757422272712</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>244.4111781792475</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>55.02934146557803</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>21.24059023833788</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
-        <v>220.3146016126436</v>
+        <v>8.595431077783287</v>
       </c>
       <c r="W6" t="n">
         <v>227.816073408046</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>45.55722539220291</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>117.3475801413638</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>83.36086362047915</v>
+        <v>369.5812517127947</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>95.35420068589659</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -1300,13 +1300,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>76.74086563202125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C11" t="n">
         <v>295.2524720077822</v>
@@ -1376,7 +1376,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F11" t="n">
         <v>318.7342196110055</v>
@@ -1385,10 +1385,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404348</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>10.76124383727409</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>273.2977702070789</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>291.5668045419573</v>
+        <v>90.19129716406036</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H13" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S13" t="n">
         <v>106.7966485049597</v>
@@ -1585,13 +1585,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V13" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W13" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X13" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y13" t="n">
         <v>126.8896660972066</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C14" t="n">
         <v>295.2524720077822</v>
@@ -1613,7 +1613,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603045</v>
+        <v>3.730459270485099</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1622,10 +1622,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T14" t="n">
-        <v>53.28931150689905</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
         <v>159.2039277954309</v>
@@ -1667,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X14" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S16" t="n">
         <v>106.7966485049597</v>
@@ -1822,13 +1822,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y16" t="n">
         <v>126.8896660972066</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277517</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
         <v>90.90562710059311</v>
@@ -2369,7 +2369,7 @@
         <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059288</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003578</v>
+        <v>280.4599644277188</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281736</v>
+        <v>273.2139126555345</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415738</v>
+        <v>265.5568836689348</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806958</v>
+        <v>282.5278558080568</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313969</v>
+        <v>296.6956602587578</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029517</v>
+        <v>293.0012941303127</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752491</v>
+        <v>204.8123861026101</v>
       </c>
       <c r="I32" t="n">
-        <v>27.3673743845347</v>
+        <v>20.92391191189566</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443482</v>
+        <v>48.81858568179578</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622524</v>
+        <v>105.2357625896133</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158222</v>
+        <v>137.1653684431832</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495917</v>
+        <v>222.6559073769526</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274703</v>
+        <v>251.2592108548313</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623486</v>
+        <v>269.5282451897095</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346798</v>
+        <v>276.4959681620408</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046315</v>
+        <v>67.32610467782411</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074555</v>
+        <v>52.47323292810651</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258528</v>
+        <v>38.04694813994624</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546439</v>
+        <v>37.97339019282535</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523166</v>
+        <v>39.72284161259262</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762379</v>
+        <v>50.54167953498475</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419584</v>
+        <v>37.8939317015568</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536777</v>
+        <v>15.73364728272873</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982368</v>
+        <v>6.632145647184643</v>
       </c>
       <c r="S34" t="n">
-        <v>91.201551625351</v>
+        <v>84.75808915271196</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595231</v>
+        <v>117.332027486884</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865929</v>
+        <v>166.5545700139539</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734589</v>
+        <v>147.2897179008199</v>
       </c>
       <c r="W34" t="n">
-        <v>170.910726694209</v>
+        <v>164.46726422157</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409216</v>
+        <v>115.7096851682826</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.294569217598</v>
+        <v>104.8511067449589</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F35" t="n">
         <v>282.3655247697376</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U35" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W35" t="n">
         <v>236.929075365811</v>
@@ -3332,7 +3332,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V37" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F38" t="n">
         <v>282.3655247697376</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U38" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W38" t="n">
         <v>236.929075365811</v>
@@ -3569,7 +3569,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V40" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3746,7 @@
         <v>285.119878025267</v>
       </c>
       <c r="E41" t="n">
-        <v>302.090850164389</v>
+        <v>302.0908501643889</v>
       </c>
       <c r="F41" t="n">
         <v>316.2586546150901</v>
@@ -3755,10 +3755,10 @@
         <v>312.564288486645</v>
       </c>
       <c r="H41" t="n">
-        <v>65.88713256224321</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822794</v>
+        <v>40.4869062682279</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>68.38158003812802</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>242.2189017332849</v>
+        <v>239.7244542574009</v>
       </c>
       <c r="W41" t="n">
         <v>270.8222052111635</v>
@@ -3806,7 +3806,7 @@
         <v>289.0912395460418</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.058962518373</v>
+        <v>296.0589625183729</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415639</v>
+        <v>86.88909903415635</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443879</v>
+        <v>72.03622728443875</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627852</v>
+        <v>57.60994249627848</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915763</v>
+        <v>57.53638454915759</v>
       </c>
       <c r="F43" t="n">
-        <v>59.2858359689249</v>
+        <v>59.28583596892486</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131703</v>
+        <v>70.10467389131699</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788908</v>
+        <v>57.45692605788904</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906101</v>
+        <v>35.29664163906097</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351693</v>
+        <v>26.19514000351688</v>
       </c>
       <c r="S43" t="n">
         <v>104.3210835090442</v>
@@ -3952,13 +3952,13 @@
         <v>136.8950218432163</v>
       </c>
       <c r="U43" t="n">
-        <v>186.1175643702862</v>
+        <v>186.1175643702861</v>
       </c>
       <c r="V43" t="n">
         <v>166.8527122571521</v>
       </c>
       <c r="W43" t="n">
-        <v>184.0302585779023</v>
+        <v>184.0302585779022</v>
       </c>
       <c r="X43" t="n">
         <v>135.2726795246148</v>
@@ -3986,16 +3986,16 @@
         <v>302.090850164389</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>316.2586546150901</v>
       </c>
       <c r="G44" t="n">
-        <v>120.4259954214467</v>
+        <v>312.564288486645</v>
       </c>
       <c r="H44" t="n">
-        <v>224.3753804589423</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822794</v>
+        <v>40.48690626822791</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812806</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>124.7987569459456</v>
@@ -4040,7 +4040,7 @@
         <v>270.8222052111635</v>
       </c>
       <c r="X44" t="n">
-        <v>289.0912395460418</v>
+        <v>73.45125236282492</v>
       </c>
       <c r="Y44" t="n">
         <v>296.058962518373</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415639</v>
+        <v>86.88909903415636</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443879</v>
+        <v>72.03622728443877</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627852</v>
+        <v>57.60994249627849</v>
       </c>
       <c r="E46" t="n">
-        <v>57.53638454915763</v>
+        <v>57.5363845491576</v>
       </c>
       <c r="F46" t="n">
-        <v>59.2858359689249</v>
+        <v>59.28583596892487</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131703</v>
+        <v>70.10467389131701</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788908</v>
+        <v>57.45692605788905</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906101</v>
+        <v>35.29664163906098</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.19514000351693</v>
+        <v>26.1951400035169</v>
       </c>
       <c r="S46" t="n">
         <v>104.3210835090442</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1728.04621777254</v>
+        <v>1196.976030438294</v>
       </c>
       <c r="C2" t="n">
-        <v>1334.87071627547</v>
+        <v>803.8005289412242</v>
       </c>
       <c r="D2" t="n">
-        <v>949.4295874921379</v>
+        <v>803.8005289412242</v>
       </c>
       <c r="E2" t="n">
-        <v>546.8460626086824</v>
+        <v>524.8948791408777</v>
       </c>
       <c r="F2" t="n">
-        <v>533.9920281790642</v>
+        <v>512.0408447112595</v>
       </c>
       <c r="G2" t="n">
-        <v>120.8292726670673</v>
+        <v>502.9184932396668</v>
       </c>
       <c r="H2" t="n">
-        <v>42.49073853703877</v>
+        <v>178.8354428061574</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="J2" t="n">
-        <v>42.49073853703877</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K2" t="n">
-        <v>46.53780406922971</v>
+        <v>544.1304548349121</v>
       </c>
       <c r="L2" t="n">
-        <v>539.8580957877585</v>
+        <v>1037.450746553441</v>
       </c>
       <c r="M2" t="n">
-        <v>1065.680985183613</v>
+        <v>1236.689201907262</v>
       </c>
       <c r="N2" t="n">
-        <v>1591.503874579468</v>
+        <v>1236.689201907262</v>
       </c>
       <c r="O2" t="n">
-        <v>1591.503874579468</v>
+        <v>1676.72880279959</v>
       </c>
       <c r="P2" t="n">
-        <v>1939.69136671099</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R2" t="n">
-        <v>2124.536926851938</v>
+        <v>1986.923381216634</v>
       </c>
       <c r="S2" t="n">
-        <v>2124.536926851938</v>
+        <v>1986.923381216634</v>
       </c>
       <c r="T2" t="n">
-        <v>2124.536926851938</v>
+        <v>1986.923381216634</v>
       </c>
       <c r="U2" t="n">
-        <v>2124.536926851938</v>
+        <v>1986.923381216634</v>
       </c>
       <c r="V2" t="n">
-        <v>2124.536926851938</v>
+        <v>1986.923381216634</v>
       </c>
       <c r="W2" t="n">
-        <v>2124.536926851938</v>
+        <v>1986.923381216634</v>
       </c>
       <c r="X2" t="n">
-        <v>2124.536926851938</v>
+        <v>1597.470776149691</v>
       </c>
       <c r="Y2" t="n">
-        <v>1728.04621777254</v>
+        <v>1597.470776149691</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.5673750163335</v>
+        <v>569.1502606706099</v>
       </c>
       <c r="C3" t="n">
-        <v>454.9131445764257</v>
+        <v>569.1502606706099</v>
       </c>
       <c r="D3" t="n">
-        <v>324.824177197906</v>
+        <v>439.0612932920902</v>
       </c>
       <c r="E3" t="n">
-        <v>188.3776863087937</v>
+        <v>302.6148024029779</v>
       </c>
       <c r="F3" t="n">
-        <v>63.94588019192553</v>
+        <v>178.1829962861097</v>
       </c>
       <c r="G3" t="n">
-        <v>63.94588019192553</v>
+        <v>178.1829962861097</v>
       </c>
       <c r="H3" t="n">
-        <v>42.49073853703877</v>
+        <v>89.88557988671064</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="J3" t="n">
-        <v>155.6057207567661</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K3" t="n">
-        <v>475.3448668189926</v>
+        <v>473.352454180576</v>
       </c>
       <c r="L3" t="n">
-        <v>958.9109527173059</v>
+        <v>883.7630516643738</v>
       </c>
       <c r="M3" t="n">
-        <v>958.9109527173059</v>
+        <v>883.7630516643738</v>
       </c>
       <c r="N3" t="n">
-        <v>1484.55046658065</v>
+        <v>883.7630516643738</v>
       </c>
       <c r="O3" t="n">
-        <v>1484.55046658065</v>
+        <v>1384.929834659824</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.171835297048</v>
+        <v>1790.551203376222</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R3" t="n">
-        <v>2100.619883750003</v>
+        <v>2000.999251829177</v>
       </c>
       <c r="S3" t="n">
-        <v>1965.689206649872</v>
+        <v>1866.068574729046</v>
       </c>
       <c r="T3" t="n">
-        <v>1788.70539484878</v>
+        <v>1689.084762927954</v>
       </c>
       <c r="U3" t="n">
-        <v>1578.642251527422</v>
+        <v>1479.021619606596</v>
       </c>
       <c r="V3" t="n">
-        <v>1356.102249898489</v>
+        <v>1256.481617977663</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.985004031776</v>
+        <v>1089.567889686052</v>
       </c>
       <c r="X3" t="n">
-        <v>936.6779263817875</v>
+        <v>900.260812036064</v>
       </c>
       <c r="Y3" t="n">
-        <v>757.3637094572948</v>
+        <v>720.9465951115712</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>693.9089582561163</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="C4" t="n">
-        <v>523.7038403221055</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="D4" t="n">
-        <v>368.0707272246203</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="E4" t="n">
-        <v>368.0707272246203</v>
+        <v>685.02956116153</v>
       </c>
       <c r="F4" t="n">
-        <v>210.7447924375932</v>
+        <v>527.703626374503</v>
       </c>
       <c r="G4" t="n">
-        <v>42.49073853703877</v>
+        <v>359.4495724739485</v>
       </c>
       <c r="H4" t="n">
-        <v>42.49073853703877</v>
+        <v>203.9710214354424</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703877</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469806</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207804</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="U4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="V4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="W4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="X4" t="n">
-        <v>917.021019439473</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="Y4" t="n">
-        <v>693.9089582561163</v>
+        <v>818.0443590727516</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>311.3471023970856</v>
+        <v>1763.422778776051</v>
       </c>
       <c r="C5" t="n">
-        <v>64.46712443824973</v>
+        <v>1763.422778776051</v>
       </c>
       <c r="D5" t="n">
-        <v>64.46712443824973</v>
+        <v>1377.981649992718</v>
       </c>
       <c r="E5" t="n">
-        <v>64.46712443824973</v>
+        <v>975.3981251092628</v>
       </c>
       <c r="F5" t="n">
-        <v>51.61309000863154</v>
+        <v>558.5036866392405</v>
       </c>
       <c r="G5" t="n">
-        <v>42.49073853703877</v>
+        <v>502.9184932396668</v>
       </c>
       <c r="H5" t="n">
-        <v>42.49073853703877</v>
+        <v>178.8354428061574</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1405114458669</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K5" t="n">
-        <v>546.1228674733287</v>
+        <v>544.1304548349121</v>
       </c>
       <c r="L5" t="n">
-        <v>1039.443159191858</v>
+        <v>1037.450746553441</v>
       </c>
       <c r="M5" t="n">
-        <v>1039.443159191858</v>
+        <v>1400.031133897835</v>
       </c>
       <c r="N5" t="n">
-        <v>1565.266048587712</v>
+        <v>1400.031133897835</v>
       </c>
       <c r="O5" t="n">
-        <v>1591.503874579468</v>
+        <v>1840.070734790164</v>
       </c>
       <c r="P5" t="n">
-        <v>1939.69136671099</v>
+        <v>1840.070734790164</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R5" t="n">
-        <v>2124.536926851938</v>
+        <v>1986.923381216634</v>
       </c>
       <c r="S5" t="n">
-        <v>2124.536926851938</v>
+        <v>1986.923381216634</v>
       </c>
       <c r="T5" t="n">
-        <v>2124.536926851938</v>
+        <v>1763.422778776051</v>
       </c>
       <c r="U5" t="n">
-        <v>1868.784197286537</v>
+        <v>1763.422778776051</v>
       </c>
       <c r="V5" t="n">
-        <v>1868.784197286537</v>
+        <v>1763.422778776051</v>
       </c>
       <c r="W5" t="n">
-        <v>1497.785162254825</v>
+        <v>1763.422778776051</v>
       </c>
       <c r="X5" t="n">
-        <v>1108.332557187881</v>
+        <v>1763.422778776051</v>
       </c>
       <c r="Y5" t="n">
-        <v>711.8418481084825</v>
+        <v>1763.422778776051</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>605.5673750163335</v>
+        <v>719.8044911105177</v>
       </c>
       <c r="C6" t="n">
-        <v>454.9131445764257</v>
+        <v>569.1502606706099</v>
       </c>
       <c r="D6" t="n">
-        <v>324.824177197906</v>
+        <v>439.0612932920902</v>
       </c>
       <c r="E6" t="n">
-        <v>188.3776863087937</v>
+        <v>302.6148024029779</v>
       </c>
       <c r="F6" t="n">
-        <v>63.94588019192553</v>
+        <v>178.1829962861097</v>
       </c>
       <c r="G6" t="n">
-        <v>42.49073853703877</v>
+        <v>178.1829962861097</v>
       </c>
       <c r="H6" t="n">
-        <v>42.49073853703877</v>
+        <v>89.88557988671064</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="J6" t="n">
-        <v>42.49073853703877</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K6" t="n">
-        <v>42.49073853703877</v>
+        <v>473.352454180576</v>
       </c>
       <c r="L6" t="n">
-        <v>526.056824435352</v>
+        <v>956.9185400788892</v>
       </c>
       <c r="M6" t="n">
-        <v>968.0301839896694</v>
+        <v>1458.08532307434</v>
       </c>
       <c r="N6" t="n">
-        <v>968.0301839896694</v>
+        <v>1458.08532307434</v>
       </c>
       <c r="O6" t="n">
-        <v>1484.55046658065</v>
+        <v>1790.551203376222</v>
       </c>
       <c r="P6" t="n">
-        <v>1890.171835297048</v>
+        <v>1790.551203376222</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R6" t="n">
-        <v>2100.619883750003</v>
+        <v>2000.999251829177</v>
       </c>
       <c r="S6" t="n">
-        <v>1965.689206649872</v>
+        <v>1866.068574729046</v>
       </c>
       <c r="T6" t="n">
-        <v>1788.70539484878</v>
+        <v>1689.084762927954</v>
       </c>
       <c r="U6" t="n">
-        <v>1578.642251527422</v>
+        <v>1479.021619606596</v>
       </c>
       <c r="V6" t="n">
-        <v>1356.102249898489</v>
+        <v>1470.339365992673</v>
       </c>
       <c r="W6" t="n">
-        <v>1125.985004031776</v>
+        <v>1240.22212012596</v>
       </c>
       <c r="X6" t="n">
-        <v>936.6779263817875</v>
+        <v>1050.915042475972</v>
       </c>
       <c r="Y6" t="n">
-        <v>757.3637094572948</v>
+        <v>871.600825551479</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>374.2174879744134</v>
+        <v>219.6101506476079</v>
       </c>
       <c r="C7" t="n">
-        <v>374.2174879744134</v>
+        <v>219.6101506476079</v>
       </c>
       <c r="D7" t="n">
-        <v>374.2174879744134</v>
+        <v>219.6101506476079</v>
       </c>
       <c r="E7" t="n">
-        <v>374.2174879744134</v>
+        <v>219.6101506476079</v>
       </c>
       <c r="F7" t="n">
-        <v>374.2174879744134</v>
+        <v>219.6101506476079</v>
       </c>
       <c r="G7" t="n">
-        <v>205.9634340738589</v>
+        <v>219.6101506476079</v>
       </c>
       <c r="H7" t="n">
-        <v>205.9634340738589</v>
+        <v>173.5927512615444</v>
       </c>
       <c r="I7" t="n">
-        <v>72.86900871093682</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469806</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207804</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S7" t="n">
-        <v>943.9377610785913</v>
+        <v>739.1292646227239</v>
       </c>
       <c r="T7" t="n">
-        <v>943.9377610785913</v>
+        <v>739.1292646227239</v>
       </c>
       <c r="U7" t="n">
-        <v>943.9377610785913</v>
+        <v>453.6904728646248</v>
       </c>
       <c r="V7" t="n">
-        <v>677.9584158994155</v>
+        <v>453.6904728646248</v>
       </c>
       <c r="W7" t="n">
-        <v>559.4255066657147</v>
+        <v>453.6904728646248</v>
       </c>
       <c r="X7" t="n">
-        <v>559.4255066657147</v>
+        <v>219.6101506476079</v>
       </c>
       <c r="Y7" t="n">
-        <v>559.4255066657147</v>
+        <v>219.6101506476079</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1279.953688967018</v>
+        <v>454.7304847860868</v>
       </c>
       <c r="C8" t="n">
-        <v>1279.953688967018</v>
+        <v>454.7304847860868</v>
       </c>
       <c r="D8" t="n">
-        <v>1279.953688967018</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="E8" t="n">
-        <v>877.3701640835627</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G8" t="n">
         <v>47.31297010154361</v>
@@ -4805,22 +4805,22 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="L8" t="n">
-        <v>864.7645682749193</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4832,22 +4832,22 @@
         <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V8" t="n">
-        <v>2161.142036303753</v>
+        <v>1595.534624566688</v>
       </c>
       <c r="W8" t="n">
-        <v>2161.142036303753</v>
+        <v>1224.535589534975</v>
       </c>
       <c r="X8" t="n">
-        <v>2076.939143757814</v>
+        <v>851.2211938654857</v>
       </c>
       <c r="Y8" t="n">
-        <v>1680.448434678415</v>
+        <v>454.7304847860868</v>
       </c>
     </row>
     <row r="9">
@@ -4890,16 +4890,16 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>963.7331842818107</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>2065.751471879394</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>686.0359480608643</v>
+        <v>852.4426182128975</v>
       </c>
       <c r="C10" t="n">
-        <v>515.8308301268535</v>
+        <v>682.2375002788867</v>
       </c>
       <c r="D10" t="n">
-        <v>360.1977170293682</v>
+        <v>526.6043871814015</v>
       </c>
       <c r="E10" t="n">
-        <v>204.6389048885707</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H10" t="n">
         <v>47.31297010154361</v>
@@ -5005,7 +5005,7 @@
         <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>871.2439667521655</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1598.67307041405</v>
+        <v>1871.211875180718</v>
       </c>
       <c r="C11" t="n">
-        <v>1300.438250204169</v>
+        <v>1572.977054970837</v>
       </c>
       <c r="D11" t="n">
-        <v>1009.937802708025</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="E11" t="n">
-        <v>702.2949591117581</v>
+        <v>974.8337638784258</v>
       </c>
       <c r="F11" t="n">
-        <v>380.3412019289242</v>
+        <v>652.8800066955919</v>
       </c>
       <c r="G11" t="n">
-        <v>62.11912770411573</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411573</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3034.383511434015</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>3034.383511434015</v>
+        <v>2977.396464052381</v>
       </c>
       <c r="U11" t="n">
-        <v>3023.513568164041</v>
+        <v>2816.584415774168</v>
       </c>
       <c r="V11" t="n">
-        <v>2776.347440154748</v>
+        <v>2569.418287764875</v>
       </c>
       <c r="W11" t="n">
-        <v>2500.289086410224</v>
+        <v>2569.418287764875</v>
       </c>
       <c r="X11" t="n">
-        <v>2205.777162630469</v>
+        <v>2478.315967397137</v>
       </c>
       <c r="Y11" t="n">
-        <v>1904.227134838258</v>
+        <v>2176.765939604927</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>62.11912770411553</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>689.8907773307967</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N12" t="n">
-        <v>1345.668748541356</v>
+        <v>2148.973980501895</v>
       </c>
       <c r="O12" t="n">
-        <v>1862.189031132337</v>
+        <v>2148.973980501895</v>
       </c>
       <c r="P12" t="n">
-        <v>2267.810399848734</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,7 +5173,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551002</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C13" t="n">
         <v>417.8199303082778</v>
@@ -5182,13 +5182,13 @@
         <v>357.1274984979809</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443718</v>
+        <v>296.5093676443721</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445331</v>
+        <v>234.1241141445335</v>
       </c>
       <c r="G13" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311672</v>
       </c>
       <c r="H13" t="n">
         <v>100.2728717798493</v>
@@ -5197,16 +5197,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362512</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757666</v>
+        <v>300.2831496757663</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791397</v>
+        <v>557.4621512791393</v>
       </c>
       <c r="M13" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
@@ -5227,22 +5227,22 @@
         <v>1541.36759087432</v>
       </c>
       <c r="T13" t="n">
-        <v>1400.589220329742</v>
+        <v>1400.589220329743</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V13" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.66272518521</v>
+        <v>850.6627251852102</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553815</v>
+        <v>711.5230842553816</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592132</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1642.069506034398</v>
+        <v>1567.337172261709</v>
       </c>
       <c r="C14" t="n">
-        <v>1343.834685824516</v>
+        <v>1269.102352051828</v>
       </c>
       <c r="D14" t="n">
-        <v>1053.334238328372</v>
+        <v>978.6019045556834</v>
       </c>
       <c r="E14" t="n">
-        <v>745.6913947321052</v>
+        <v>974.8337638784258</v>
       </c>
       <c r="F14" t="n">
-        <v>423.7376375492713</v>
+        <v>652.8800066955919</v>
       </c>
       <c r="G14" t="n">
-        <v>105.5155633244624</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H14" t="n">
         <v>105.5155633244624</v>
@@ -5306,22 +5306,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>2980.555924053308</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2819.743875775096</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="V14" t="n">
-        <v>2819.743875775096</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="W14" t="n">
-        <v>2543.685522030572</v>
+        <v>2468.953188257883</v>
       </c>
       <c r="X14" t="n">
-        <v>2249.173598250817</v>
+        <v>2174.441264478128</v>
       </c>
       <c r="Y14" t="n">
-        <v>1947.623570458606</v>
+        <v>1872.891236685918</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082779</v>
+        <v>417.8199303082775</v>
       </c>
       <c r="D16" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979807</v>
       </c>
       <c r="E16" t="n">
         <v>296.5093676443719</v>
@@ -5437,22 +5437,22 @@
         <v>125.3967468362513</v>
       </c>
       <c r="K16" t="n">
-        <v>300.2831496757668</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791398</v>
+        <v>557.4621512791393</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469772</v>
+        <v>836.8050913469765</v>
       </c>
       <c r="N16" t="n">
-        <v>1113.04608710776</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P16" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
         <v>1678.203301484817</v>
@@ -5461,25 +5461,25 @@
         <v>1649.242993404582</v>
       </c>
       <c r="S16" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T16" t="n">
         <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V16" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852103</v>
+        <v>850.6627251852099</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553817</v>
+        <v>711.5230842553813</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592134</v>
+        <v>583.3517043592129</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M17" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5534,10 +5534,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S17" t="n">
         <v>3071.119566829236</v>
@@ -5558,7 +5558,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5598,19 +5598,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L18" t="n">
-        <v>62.11912770411553</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M18" t="n">
-        <v>689.8907773307967</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N18" t="n">
-        <v>1345.668748541356</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O18" t="n">
-        <v>1862.189031132337</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P18" t="n">
-        <v>2267.810399848734</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5665,7 +5665,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5680,19 +5680,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D20" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975453</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5774,10 +5774,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5789,13 +5789,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M21" t="n">
-        <v>1493.196009291336</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N21" t="n">
-        <v>2146.089571124861</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
-        <v>2146.089571124861</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5902,31 +5902,31 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>593.6560140511123</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>776.8456480823215</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>939.5504151240295</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P22" t="n">
-        <v>1059.426580900608</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q22" t="n">
         <v>1090.581152532863</v>
@@ -5981,7 +5981,7 @@
         <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,10 +6011,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6075,10 +6075,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6139,7 +6139,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6160,13 +6160,13 @@
         <v>776.8456480823215</v>
       </c>
       <c r="O25" t="n">
-        <v>939.5504151240295</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
-        <v>1059.426580900608</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6224,25 +6224,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>606.9665031662627</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1193.338156614365</v>
+        <v>1286.389518343938</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388519</v>
+        <v>1925.441780118092</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.201702025981</v>
+        <v>2546.304425485127</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647883</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.4284403795</v>
@@ -6251,10 +6251,10 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
         <v>3307.298104174144</v>
@@ -6263,10 +6263,10 @@
         <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D28" t="n">
         <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286452</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="29">
@@ -6464,22 +6464,22 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
         <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2423.283548473132</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
         <v>2956.374511095034</v>
       </c>
       <c r="P29" t="n">
-        <v>3397.613364956129</v>
+        <v>3390.346025506991</v>
       </c>
       <c r="Q29" t="n">
         <v>3668.242947377513</v>
@@ -6549,10 +6549,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1095.935962441339</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N30" t="n">
-        <v>1751.713933651898</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985356</v>
+        <v>504.3300981985353</v>
       </c>
       <c r="C31" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.373229741416</v>
+        <v>368.3732297414159</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232842</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192014</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904117</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286452</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026484</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084637</v>
+        <v>1719.814764781096</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985472</v>
+        <v>1443.841115634091</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600044</v>
+        <v>1175.601839200824</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144923</v>
+        <v>890.2201666674334</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423742</v>
+        <v>590.527580547476</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282816</v>
+        <v>294.5666773855439</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267645</v>
+        <v>87.68547930209927</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304543</v>
+        <v>66.5502147446289</v>
       </c>
       <c r="J32" t="n">
-        <v>213.1924002918735</v>
+        <v>326.0695231417556</v>
       </c>
       <c r="K32" t="n">
-        <v>572.1747563193353</v>
+        <v>787.3056086660742</v>
       </c>
       <c r="L32" t="n">
-        <v>1173.98555567825</v>
+        <v>1280.625900384603</v>
       </c>
       <c r="M32" t="n">
-        <v>1828.476963363216</v>
+        <v>1826.626800429184</v>
       </c>
       <c r="N32" t="n">
-        <v>2454.058715987472</v>
+        <v>2354.438084066646</v>
       </c>
       <c r="O32" t="n">
-        <v>2894.0983168798</v>
+        <v>2794.477684958974</v>
       </c>
       <c r="P32" t="n">
-        <v>3242.285809011322</v>
+        <v>3142.665177090496</v>
       </c>
       <c r="Q32" t="n">
-        <v>3427.131369152271</v>
+        <v>3327.510737231445</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152271</v>
+        <v>3327.510737231445</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491226</v>
+        <v>3278.19903452256</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448546</v>
+        <v>3171.900284432042</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281049</v>
+        <v>3033.349407216705</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382472</v>
+        <v>2808.444450270289</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748664</v>
+        <v>2554.647267588641</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079625</v>
+        <v>2282.396514871763</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.16845439813</v>
+        <v>2003.107658142428</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230764</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831686</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.1654127046489</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155366</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.2272977705329</v>
+        <v>204.2348851321164</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711338</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304543</v>
+        <v>66.5502147446289</v>
       </c>
       <c r="J33" t="n">
-        <v>181.6576096027728</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>501.3967556649993</v>
+        <v>499.4043430265828</v>
       </c>
       <c r="L33" t="n">
-        <v>984.9628415633125</v>
+        <v>982.9704289248959</v>
       </c>
       <c r="M33" t="n">
-        <v>984.9628415633125</v>
+        <v>982.9704289248959</v>
       </c>
       <c r="N33" t="n">
-        <v>1230.371419496412</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1744.899289448977</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2150.520658165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590195</v>
+        <v>341.6872565554784</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229128</v>
+        <v>288.6839909715324</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233318</v>
+        <v>250.252730224112</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804384</v>
+        <v>211.8957704333793</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913156</v>
+        <v>171.7716879964171</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886652</v>
+        <v>120.7194864459274</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806338</v>
+        <v>82.4427877574862</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304543</v>
+        <v>66.5502147446289</v>
       </c>
       <c r="J34" t="n">
-        <v>68.54262738304543</v>
+        <v>151.64600763549</v>
       </c>
       <c r="K34" t="n">
-        <v>258.8681761333732</v>
+        <v>348.3505842337303</v>
       </c>
       <c r="L34" t="n">
-        <v>531.4863236475588</v>
+        <v>512.4782241075301</v>
       </c>
       <c r="M34" t="n">
-        <v>826.2684096262087</v>
+        <v>742.3933528114615</v>
       </c>
       <c r="N34" t="n">
-        <v>1117.948551297804</v>
+        <v>925.5829868426706</v>
       </c>
       <c r="O34" t="n">
-        <v>1309.286469245664</v>
+        <v>1088.287753884379</v>
       </c>
       <c r="P34" t="n">
-        <v>1429.162635022243</v>
+        <v>1208.163919660957</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392294</v>
+        <v>1326.455651519307</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422775</v>
+        <v>1319.756514501948</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003228</v>
+        <v>1234.142283034563</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569367</v>
+        <v>1115.625083552861</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209172</v>
+        <v>947.3881441448273</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279001</v>
+        <v>798.6106513157163</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569818</v>
+        <v>632.4821015969587</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378691</v>
+        <v>515.6036317300067</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524166</v>
+        <v>409.6934228967149</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6965,19 +6965,19 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224689</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7011,7 +7011,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J36" t="n">
         <v>175.2341099238429</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>967.2827903862326</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162811</v>
       </c>
       <c r="Q37" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
@@ -7166,7 +7166,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7205,16 +7205,16 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>689.8907773307967</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N39" t="n">
-        <v>1345.668748541356</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>1862.189031132337</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2267.810399848734</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7351,31 +7351,31 @@
         <v>960.1439538756169</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532863</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1693.618740970509</v>
+        <v>1627.066081816727</v>
       </c>
       <c r="C41" t="n">
-        <v>1397.884491463573</v>
+        <v>1331.331832309791</v>
       </c>
       <c r="D41" t="n">
-        <v>1109.884614670374</v>
+        <v>1043.331955516592</v>
       </c>
       <c r="E41" t="n">
-        <v>804.7423417770517</v>
+        <v>738.1896826232696</v>
       </c>
       <c r="F41" t="n">
-        <v>485.2891552971627</v>
+        <v>418.7364961433809</v>
       </c>
       <c r="G41" t="n">
-        <v>169.5676517752991</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="H41" t="n">
         <v>103.0149926215175</v>
@@ -7436,25 +7436,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T41" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="U41" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="V41" t="n">
-        <v>2861.290827899428</v>
+        <v>2794.738168745646</v>
       </c>
       <c r="W41" t="n">
-        <v>2587.733044857849</v>
+        <v>2521.180385704066</v>
       </c>
       <c r="X41" t="n">
-        <v>2295.721691781039</v>
+        <v>2229.169032627256</v>
       </c>
       <c r="Y41" t="n">
-        <v>1996.672234691773</v>
+        <v>1930.119575537991</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7488,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>689.8907773307967</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
-        <v>1345.668748541356</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>1862.189031132337</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
         <v>2146.089571124861</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344863</v>
+        <v>475.5803720344859</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906087</v>
+        <v>402.8165060906084</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832566</v>
+        <v>344.6246449832564</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325923</v>
+        <v>286.5070848325922</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356985</v>
+        <v>226.6224020356984</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8096001252772</v>
+        <v>155.8096001252771</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690443</v>
+        <v>97.77230107690438</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822076</v>
+        <v>68.23195016743819</v>
       </c>
       <c r="K43" t="n">
-        <v>245.5691623529112</v>
+        <v>245.5691623529096</v>
       </c>
       <c r="L43" t="n">
-        <v>505.1989733022405</v>
+        <v>505.198973302239</v>
       </c>
       <c r="M43" t="n">
-        <v>786.9927227160341</v>
+        <v>786.9927227160326</v>
       </c>
       <c r="N43" t="n">
-        <v>1065.684527822773</v>
+        <v>1065.684527822772</v>
       </c>
       <c r="O43" t="n">
-        <v>1323.891465940011</v>
+        <v>1323.891465940009</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.269802792119</v>
+        <v>1539.269802792118</v>
       </c>
       <c r="Q43" t="n">
-        <v>1638.194170237699</v>
+        <v>1638.194170237698</v>
       </c>
       <c r="R43" t="n">
         <v>1611.734432860409</v>
       </c>
       <c r="S43" t="n">
-        <v>1506.359601033092</v>
+        <v>1506.359601033091</v>
       </c>
       <c r="T43" t="n">
-        <v>1368.081801191459</v>
+        <v>1368.081801191458</v>
       </c>
       <c r="U43" t="n">
         <v>1180.084261423493</v>
       </c>
       <c r="V43" t="n">
-        <v>1011.546168234451</v>
+        <v>1011.54616823445</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557615</v>
+        <v>825.657018155761</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288779</v>
+        <v>689.0179479288773</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356544</v>
+        <v>563.347138735654</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1340.175609875974</v>
+        <v>1627.066081816728</v>
       </c>
       <c r="C44" t="n">
-        <v>1044.441360369038</v>
+        <v>1331.331832309791</v>
       </c>
       <c r="D44" t="n">
-        <v>756.4414835758394</v>
+        <v>1043.331955516592</v>
       </c>
       <c r="E44" t="n">
-        <v>451.2992106825166</v>
+        <v>738.1896826232701</v>
       </c>
       <c r="F44" t="n">
-        <v>451.2992106825166</v>
+        <v>418.736496143381</v>
       </c>
       <c r="G44" t="n">
-        <v>329.6567910648937</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="H44" t="n">
         <v>103.0149926215175</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3036.88408213696</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>2910.82473168651</v>
+        <v>2979.897034755326</v>
       </c>
       <c r="U44" t="n">
-        <v>2752.513254111242</v>
+        <v>2821.585557180058</v>
       </c>
       <c r="V44" t="n">
-        <v>2507.847696804894</v>
+        <v>2576.919999873709</v>
       </c>
       <c r="W44" t="n">
-        <v>2234.289913763314</v>
+        <v>2303.36221683213</v>
       </c>
       <c r="X44" t="n">
-        <v>1942.278560686504</v>
+        <v>2229.169032627257</v>
       </c>
       <c r="Y44" t="n">
-        <v>1643.229103597238</v>
+        <v>1930.119575537991</v>
       </c>
     </row>
     <row r="45">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344863</v>
+        <v>475.580372034486</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906087</v>
+        <v>402.8165060906085</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832566</v>
+        <v>344.6246449832565</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325923</v>
+        <v>286.5070848325922</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356985</v>
+        <v>226.6224020356984</v>
       </c>
       <c r="G46" t="n">
         <v>155.8096001252772</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690443</v>
+        <v>97.7723010769044</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7807,22 +7807,22 @@
         <v>127.8475561822076</v>
       </c>
       <c r="K46" t="n">
-        <v>305.184768367679</v>
+        <v>305.1847683676791</v>
       </c>
       <c r="L46" t="n">
-        <v>564.8145793170083</v>
+        <v>505.1989733022401</v>
       </c>
       <c r="M46" t="n">
-        <v>846.608328730802</v>
+        <v>786.9927227160337</v>
       </c>
       <c r="N46" t="n">
-        <v>1125.300133837541</v>
+        <v>1065.684527822772</v>
       </c>
       <c r="O46" t="n">
-        <v>1383.507071954778</v>
+        <v>1323.89146594001</v>
       </c>
       <c r="P46" t="n">
-        <v>1598.885408806887</v>
+        <v>1539.269802792118</v>
       </c>
       <c r="Q46" t="n">
         <v>1638.194170237699</v>
@@ -7840,16 +7840,16 @@
         <v>1180.084261423493</v>
       </c>
       <c r="V46" t="n">
-        <v>1011.546168234451</v>
+        <v>1011.54616823445</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557615</v>
+        <v>825.6570181557611</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288779</v>
+        <v>689.0179479288774</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356544</v>
+        <v>563.3471387356541</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>147.1463481612484</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>680.8592833107118</v>
+        <v>350.9760166015867</v>
       </c>
       <c r="N2" t="n">
-        <v>680.2527230507687</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8061,16 +8061,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>504.6165059314615</v>
       </c>
       <c r="M3" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>616.3211167565348</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>598.916632621667</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8222,16 +8222,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>515.9678670971155</v>
       </c>
       <c r="N5" t="n">
-        <v>680.2527230507687</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>176.0666919612236</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8292,25 +8292,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>538.8248589728647</v>
+        <v>598.6161957820899</v>
       </c>
       <c r="N6" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>428.5116804059414</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8453,13 +8453,13 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>457.8528328367281</v>
       </c>
       <c r="L8" t="n">
-        <v>470.2375325962349</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8471,7 +8471,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8538,19 +8538,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>333.2595653118437</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>390.0096609786947</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8769,10 +8769,10 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
@@ -8781,13 +8781,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>320.902235706038</v>
       </c>
       <c r="Q12" t="n">
-        <v>204.7702368236083</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9006,16 +9006,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N15" t="n">
-        <v>136.3731801151487</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>263.7907196684351</v>
+        <v>263.7907196684361</v>
       </c>
       <c r="K17" t="n">
         <v>505.666843611017</v>
@@ -9246,7 +9246,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
@@ -9258,10 +9258,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q18" t="n">
-        <v>204.7702368236083</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9410,7 +9410,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N20" t="n">
-        <v>682.2612020826953</v>
+        <v>682.2612020826954</v>
       </c>
       <c r="O20" t="n">
         <v>594.0482827698827</v>
@@ -9480,7 +9480,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>377.3304183063261</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
@@ -9489,16 +9489,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>744.8605591506561</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9723,13 +9723,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N24" t="n">
-        <v>220.8844470939643</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>199.6102425680203</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10437,7 +10437,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118432</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10899,19 +10899,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>204.7702368236083</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,25 +11136,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>373.8515870339854</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
         <v>327.7205688679246</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>148.4426839581568</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>201.3755073778969</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>300.8359558898193</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>73.98501043496199</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.907985046680551e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>158.4882478966991</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812806</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>124.7987569459456</v>
@@ -25685,7 +25685,7 @@
         <v>156.7283627995155</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>2.494447475883987</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25874,13 +25874,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>316.2586546150901</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>192.1382930651983</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>68.38158003812804</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25928,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>215.6399871832169</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>583868.5307531739</v>
+        <v>582665.4355256532</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>583868.5307531739</v>
+        <v>582665.4355256532</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>586780.3792675789</v>
+        <v>586780.3792675788</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>560045.5400183417</v>
+        <v>560045.5400183416</v>
       </c>
     </row>
     <row r="6">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>562262.408472184</v>
+        <v>562262.4084721841</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>721328.7123734272</v>
+      </c>
+      <c r="C2" t="n">
         <v>721328.7123734271</v>
       </c>
-      <c r="C2" t="n">
-        <v>721328.7123734272</v>
-      </c>
       <c r="D2" t="n">
+        <v>721328.7123734269</v>
+      </c>
+      <c r="E2" t="n">
+        <v>677904.4907329527</v>
+      </c>
+      <c r="F2" t="n">
+        <v>677904.4907329525</v>
+      </c>
+      <c r="G2" t="n">
         <v>721328.7123734273</v>
       </c>
-      <c r="E2" t="n">
-        <v>677904.4907329526</v>
-      </c>
-      <c r="F2" t="n">
-        <v>677904.4907329521</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>721328.7123734277</v>
+      </c>
+      <c r="I2" t="n">
+        <v>721328.7123734276</v>
+      </c>
+      <c r="J2" t="n">
         <v>721328.7123734275</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>721328.7123734273</v>
       </c>
-      <c r="I2" t="n">
-        <v>721328.7123734273</v>
-      </c>
-      <c r="J2" t="n">
-        <v>721328.7123734273</v>
-      </c>
-      <c r="K2" t="n">
-        <v>721328.7123734269</v>
-      </c>
       <c r="L2" t="n">
-        <v>721328.7123734266</v>
+        <v>721328.7123734285</v>
       </c>
       <c r="M2" t="n">
         <v>721328.7123734275</v>
@@ -26350,7 +26350,7 @@
         <v>721328.7123734275</v>
       </c>
       <c r="O2" t="n">
-        <v>680860.3153380761</v>
+        <v>680860.3153380763</v>
       </c>
       <c r="P2" t="n">
         <v>680860.3153380763</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343505</v>
+        <v>169649.0058765498</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602672</v>
+        <v>26460.41160941829</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377121</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301435</v>
+        <v>29094.95587301434</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469664</v>
+        <v>215329.5897923932</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670127</v>
+        <v>46725.8033548125</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436851</v>
+        <v>43782.97194555664</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015683</v>
+        <v>18983.5598301568</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213463.5449614854</v>
+        <v>218972.6240101879</v>
       </c>
       <c r="C4" t="n">
-        <v>213463.5449614853</v>
+        <v>218972.6240101879</v>
       </c>
       <c r="D4" t="n">
         <v>200129.9340579131</v>
@@ -26436,7 +26436,7 @@
         <v>173460.5839839468</v>
       </c>
       <c r="I4" t="n">
-        <v>173460.5839839467</v>
+        <v>173460.5839839468</v>
       </c>
       <c r="J4" t="n">
         <v>174211.0764483299</v>
@@ -26445,7 +26445,7 @@
         <v>174211.0764483299</v>
       </c>
       <c r="L4" t="n">
-        <v>173888.2217936688</v>
+        <v>173754.827184614</v>
       </c>
       <c r="M4" t="n">
         <v>173460.5839839468</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814946</v>
+        <v>64406.32768295291</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814946</v>
+        <v>64406.32768295291</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,22 +26482,22 @@
         <v>55112.2895089091</v>
       </c>
       <c r="G5" t="n">
+        <v>58169.76931551967</v>
+      </c>
+      <c r="H5" t="n">
         <v>58169.76931551966</v>
       </c>
-      <c r="H5" t="n">
-        <v>58169.76931551967</v>
-      </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446765</v>
+        <v>60332.67530588339</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,7 +26506,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>55320.40778255072</v>
+        <v>55320.40778255073</v>
       </c>
       <c r="P5" t="n">
         <v>55320.40778255072</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>263949.3089894418</v>
+        <v>268300.7548037366</v>
       </c>
       <c r="C6" t="n">
-        <v>441944.6061237925</v>
+        <v>437949.7606802863</v>
       </c>
       <c r="D6" t="n">
-        <v>432889.1986523144</v>
+        <v>425152.9094289222</v>
       </c>
       <c r="E6" t="n">
-        <v>343483.0067458666</v>
+        <v>343374.4461917654</v>
       </c>
       <c r="F6" t="n">
-        <v>473935.9378835782</v>
+        <v>473827.3773294774</v>
       </c>
       <c r="G6" t="n">
         <v>460603.4032009466</v>
       </c>
       <c r="H6" t="n">
-        <v>489698.3590739609</v>
+        <v>489698.3590739613</v>
       </c>
       <c r="I6" t="n">
+        <v>489698.3590739611</v>
+      </c>
+      <c r="J6" t="n">
+        <v>268129.0008787849</v>
+      </c>
+      <c r="K6" t="n">
+        <v>483458.5906711779</v>
+      </c>
+      <c r="L6" t="n">
+        <v>440515.4065281185</v>
+      </c>
+      <c r="M6" t="n">
+        <v>445915.3871284043</v>
+      </c>
+      <c r="N6" t="n">
         <v>489698.359073961</v>
       </c>
-      <c r="J6" t="n">
-        <v>261612.7157242115</v>
-      </c>
-      <c r="K6" t="n">
-        <v>483458.5906711774</v>
-      </c>
-      <c r="L6" t="n">
-        <v>444564.2437385889</v>
-      </c>
-      <c r="M6" t="n">
-        <v>446967.0821395925</v>
-      </c>
-      <c r="N6" t="n">
-        <v>489698.3590739611</v>
-      </c>
       <c r="O6" t="n">
-        <v>456025.4684859123</v>
+        <v>455924.2974933241</v>
       </c>
       <c r="P6" t="n">
-        <v>475009.0283160693</v>
+        <v>474907.8573234809</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>93.99127447431644</v>
+      </c>
+      <c r="F2" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="F2" t="n">
-        <v>93.99127447431644</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26710,10 +26710,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="P2" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129846</v>
+        <v>506.229073732778</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129846</v>
+        <v>506.229073732778</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,25 +26802,25 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
+        <v>776.4890963014442</v>
+      </c>
+      <c r="H4" t="n">
         <v>776.4890963014441</v>
       </c>
-      <c r="H4" t="n">
-        <v>776.4890963014442</v>
-      </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
+        <v>917.0607368443782</v>
+      </c>
+      <c r="K4" t="n">
         <v>917.0607368443783</v>
       </c>
-      <c r="K4" t="n">
-        <v>917.0607368443782</v>
-      </c>
       <c r="L4" t="n">
-        <v>856.7828422880677</v>
+        <v>831.8776843078613</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126794</v>
+        <v>36.36869484126792</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304853</v>
+        <v>57.62257963304852</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087659</v>
+        <v>58.40725419351563</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165926</v>
+        <v>14.33013548902028</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769604</v>
+        <v>23.729449787696</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129846</v>
+        <v>506.229073732778</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455631046</v>
+        <v>85.18305253651704</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559187</v>
+        <v>646.8007142757122</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455253</v>
+        <v>129.6883820257316</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126794</v>
+        <v>36.36869484126792</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304853</v>
+        <v>57.62257963304852</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129846</v>
+        <v>506.229073732778</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455631046</v>
+        <v>85.18305253651704</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>122.4410963322779</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>243.287071140446</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -27442,10 +27442,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27473,10 +27473,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>66.17385199706719</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>62.57148239935154</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27537,13 +27537,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>22.31857408728007</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -27600,10 +27600,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>205.0919447721196</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>144.8325683028512</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>354.0017864912988</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>97.61862951051631</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27752,7 +27752,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>211.7191705348604</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27786,16 +27786,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>108.366540135918</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>163.1495179067703</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>302.1972153957946</v>
+        <v>15.97682730347901</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>88.00173781849168</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -28077,7 +28077,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>144.1400749395018</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431673</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="17">
@@ -28752,22 +28752,22 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28980,7 +28980,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>130.3599693155844</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28995,13 +28995,13 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>128.2979821082778</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>28.0125002648524</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>130.3599693155844</v>
@@ -29089,7 +29089,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="U23" t="n">
         <v>130.3599693155844</v>
@@ -29232,16 +29232,16 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>35.71049010668801</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>28.0125002648524</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29296,28 +29296,28 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>30.27223765901255</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901215</v>
       </c>
       <c r="M26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>93.99127447431646</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431648</v>
+        <v>86.65052755599589</v>
       </c>
       <c r="Q29" t="n">
-        <v>86.65052755599532</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,43 +29746,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>103.2865954513706</v>
       </c>
       <c r="L32" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>98.75804948160942</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="K34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="L34" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>109.5863713539251</v>
+        <v>44.06419228855287</v>
       </c>
       <c r="N34" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>28.92237465267917</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
     </row>
     <row r="35">
@@ -30165,7 +30165,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30180,16 +30180,16 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
+        <v>28.0125002648515</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>128.2979821082779</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30423,10 +30423,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.2979821082778</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="R40" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082768</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="J43" t="n">
-        <v>96.46683947023187</v>
+        <v>36.24905561692943</v>
       </c>
       <c r="K43" t="n">
-        <v>36.24905561693102</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="L43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="M43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="N43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="O43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="P43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023192</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="C44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="D44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="E44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="F44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="G44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="H44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="I44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30727,7 +30727,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="T44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="U44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="V44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="W44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="X44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="C46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="D46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="E46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="F46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="G46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="H46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="I46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="J46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="K46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="L46" t="n">
-        <v>96.46683947023187</v>
+        <v>36.24905561693052</v>
       </c>
       <c r="M46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="N46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="O46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="P46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="Q46" t="n">
-        <v>36.24905561693122</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="R46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="S46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="T46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="U46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="V46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="W46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="X46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
     </row>
   </sheetData>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>4.087944982011045</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>531.1342317129846</v>
+        <v>201.2509650038595</v>
       </c>
       <c r="N2" t="n">
-        <v>531.1342317129846</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,16 +34781,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>414.5561590745432</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>530.9490039023682</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>506.229073732778</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34942,16 +34942,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>366.2428154993881</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1342317129846</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>26.5028545371272</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>446.4377369235528</v>
+        <v>506.229073732778</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>335.8241215170525</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35173,13 +35173,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>314.7944296574907</v>
       </c>
       <c r="L8" t="n">
-        <v>316.9893628657432</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35191,7 +35191,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35258,19 +35258,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>247.8874524576771</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>302.92629615938</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
@@ -35501,13 +35501,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>233.8188708867233</v>
       </c>
       <c r="Q12" t="n">
-        <v>113.7820836676943</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L13" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M13" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N13" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O13" t="n">
         <v>258.3395240113953</v>
@@ -35586,7 +35586,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N15" t="n">
-        <v>51.00106726098203</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6529321611267</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
@@ -35823,7 +35823,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K17" t="n">
         <v>362.6084404317796</v>
@@ -35966,7 +35966,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
@@ -35978,10 +35978,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q18" t="n">
-        <v>113.7820836676943</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36048,22 +36048,22 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094878</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>249.385018246236</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O20" t="n">
         <v>444.4844453457863</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
@@ -36209,16 +36209,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>659.4884462964894</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36291,13 +36291,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>292.6462316453567</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.46926427500488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
         <v>7.697989841835579</v>
@@ -36443,13 +36443,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N24" t="n">
-        <v>135.5123342397976</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36528,16 +36528,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>164.3482495370789</v>
+        <v>200.0587396437669</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.46926427500488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>392.8806780907922</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>528.5755626272231</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
         <v>56.37828989698318</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004055</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>438.3550650625836</v>
       </c>
       <c r="Q29" t="n">
-        <v>273.3632145670545</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>107.2231205187084</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37005,10 +37005,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>262.1407155526531</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>465.8950358831502</v>
       </c>
       <c r="L32" t="n">
-        <v>607.889696322136</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>661.1024320050166</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>631.9007602265206</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
@@ -37157,7 +37157,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576765</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>85.95534635440509</v>
       </c>
       <c r="K34" t="n">
-        <v>192.2480290407351</v>
+        <v>198.6914915133741</v>
       </c>
       <c r="L34" t="n">
-        <v>275.3718661759451</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>297.7596828067171</v>
+        <v>232.2375037413448</v>
       </c>
       <c r="N34" t="n">
-        <v>294.6264057288839</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>193.270624189758</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.456764010152483</v>
+        <v>119.4865978367166</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>100.2854818434254</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37476,7 +37476,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>294.7082188526632</v>
+        <v>192.3607498019304</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634529095</v>
+        <v>7.697989841835636</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>113.7820836676943</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>131.7547461184303</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835579</v>
+        <v>5.636002634527946</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>286.7682222146707</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
         <v>236.7324157120106</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.3923519980728</v>
+        <v>6.174568144770362</v>
       </c>
       <c r="K43" t="n">
-        <v>118.910713303741</v>
+        <v>179.1284971570419</v>
       </c>
       <c r="L43" t="n">
         <v>262.2523342922519</v>
@@ -37950,13 +37950,13 @@
         <v>281.5068738451907</v>
       </c>
       <c r="O43" t="n">
-        <v>260.8150890073107</v>
+        <v>260.8150890073108</v>
       </c>
       <c r="P43" t="n">
-        <v>217.55387560819</v>
+        <v>217.5538756081901</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.92360348038436</v>
+        <v>99.9236034803844</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N44" t="n">
         <v>533.1427107449111</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>66.3923519980728</v>
+        <v>66.39235199807283</v>
       </c>
       <c r="K46" t="n">
         <v>179.1284971570419</v>
       </c>
       <c r="L46" t="n">
-        <v>262.2523342922519</v>
+        <v>202.0345504389505</v>
       </c>
       <c r="M46" t="n">
         <v>284.6401509230238</v>
@@ -38190,10 +38190,10 @@
         <v>260.8150890073107</v>
       </c>
       <c r="P46" t="n">
-        <v>217.55387560819</v>
+        <v>217.5538756081901</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.70581962708371</v>
+        <v>99.92360348038439</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
